--- a/CodeSystem-oct-biomarker.xlsx
+++ b/CodeSystem-oct-biomarker.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://eyematics.org/fhir/eyematics-kds/CodeSystem/oct-biomarker</t>
+    <t>https://eyematics.org/fhir/eyematics-kds-extended/StructureDefinition/OCT-Biomarker</t>
   </si>
   <si>
     <t>Version</t>
@@ -126,7 +126,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Vitreomacular Traction</t>
+  </si>
+  <si>
+    <t>EZ</t>
+  </si>
+  <si>
+    <t>Ellipsoid zone</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,6 +538,18 @@
       </c>
       <c r="D4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
